--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB0E1D98-DDCD-0F4B-87B5-BE3D9E48B6D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774283-A6C1-8847-BFDC-FEC49EABD18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,10 +219,6 @@
     <t>depth-first-search</t>
   </si>
   <si>
-    <t>Validate Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/validate-binary-search-tree/solution/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,15 +232,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Recover Binary Search Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>树的遍历概念介绍：https://blog.csdn.net/My_Jobs/article/details/43451187</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://www.cnblogs.com/grandyang/p/4298069.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100. Same Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>98. Validate Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>99. Recover Binary Search Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/4053384.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树的遍历、同时遍历</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -734,7 +746,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -742,7 +754,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="36.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.83203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="98.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.5" style="1" customWidth="1"/>
@@ -772,7 +784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75">
+    <row r="2" spans="1:7" ht="50">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -780,19 +792,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -806,16 +818,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -824,6 +836,21 @@
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -891,6 +918,7 @@
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{290A39F0-3737-BA4A-899A-3FB07A9B4668}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{D0C10C7A-6CBB-1D4E-B2AE-F9A6F5C16EBF}"/>
+    <hyperlink ref="G4" r:id="rId3" xr:uid="{B6A85328-07C3-CE4C-9D90-9EDA8C806ECF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6774283-A6C1-8847-BFDC-FEC49EABD18C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E911100-DACF-AA42-A399-78A8D6356BFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,14 @@
   </si>
   <si>
     <t>树的遍历、同时遍历</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105. Construct Binary Tree from Preorder and Inorder Traversal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>109. Convert Sorted List to Binary Search Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -754,7 +762,7 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="45.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="80.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="98.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.5" style="1" customWidth="1"/>
@@ -853,9 +861,29 @@
         <v>33</v>
       </c>
     </row>
+    <row r="5" spans="1:7">
+      <c r="C5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="6" spans="1:7">
       <c r="B6" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:7">

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E911100-DACF-AA42-A399-78A8D6356BFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A45648-F44C-5944-AA4A-441B2DB5FACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,12 +267,22 @@
     <t>109. Convert Sorted List to Binary Search Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>22. Generate Parentheses</t>
+  </si>
+  <si>
+    <t>backtracking</t>
+  </si>
+  <si>
+    <t>暴力破解,效率不高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -316,6 +326,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -405,7 +422,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,6 +452,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -753,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -802,7 +822,7 @@
       <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="10" t="s">
         <v>31</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -825,7 +845,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="10" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -848,7 +868,7 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="10" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -865,7 +885,7 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="10" t="s">
         <v>35</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -879,7 +899,7 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="10" t="s">
         <v>36</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -889,6 +909,18 @@
     <row r="7" spans="1:7">
       <c r="B7" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A45648-F44C-5944-AA4A-441B2DB5FACD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614A5E2-38B0-DC43-9816-AB6395A068C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
+    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -276,6 +276,19 @@
   <si>
     <t>暴力破解,效率不高</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/generate-parentheses/solution/</t>
+  </si>
+  <si>
+    <t>37. Sudoku Solver</t>
+  </si>
+  <si>
+    <t>暴力破解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.programcreek.com/2014/05/leetcode-sudoku-solver-java/</t>
   </si>
 </sst>
 </file>
@@ -773,8 +786,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -922,10 +935,28 @@
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -979,6 +1010,8 @@
     <hyperlink ref="G2" r:id="rId1" xr:uid="{290A39F0-3737-BA4A-899A-3FB07A9B4668}"/>
     <hyperlink ref="G3" r:id="rId2" xr:uid="{D0C10C7A-6CBB-1D4E-B2AE-F9A6F5C16EBF}"/>
     <hyperlink ref="G4" r:id="rId3" xr:uid="{B6A85328-07C3-CE4C-9D90-9EDA8C806ECF}"/>
+    <hyperlink ref="G7" r:id="rId4" xr:uid="{21D9C497-424F-3A4B-A956-74B34DA43E03}"/>
+    <hyperlink ref="G8" r:id="rId5" xr:uid="{21338533-B620-2241-A0AA-CDB1B08E5D95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2614A5E2-38B0-DC43-9816-AB6395A068C6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685207AC-7792-2044-8094-175E9DA66352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -284,11 +284,18 @@
     <t>37. Sudoku Solver</t>
   </si>
   <si>
-    <t>暴力破解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.programcreek.com/2014/05/leetcode-sudoku-solver-java/</t>
+  </si>
+  <si>
+    <t>39. Combination Sum</t>
+  </si>
+  <si>
+    <t>暴力破解,试答案</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在回溯的时候要有个存档点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -786,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F2" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -953,15 +960,27 @@
         <v>38</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:7">

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685207AC-7792-2044-8094-175E9DA66352}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B9129-31EE-FA4B-9AB2-1ABFA0B17A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,13 @@
   </si>
   <si>
     <t>在回溯的时候要有个存档点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>46. Permutations</t>
+  </si>
+  <si>
+    <t>没有跳出的一说，只有合不合格，都要过一遍。之前有个思路是二进制，也是全部遍历一遍，但不是回溯。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -793,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -987,6 +994,18 @@
       <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480B9129-31EE-FA4B-9AB2-1ABFA0B17A62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A21CC-612A-6F4A-A853-9BFB211B0BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="460" windowWidth="27900" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
+    <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -223,10 +223,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>**?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>失败是因为没有把root的值带入后续迭代里面去校验，
 可以构造全局范围的上限下限，后面每一个节点都应该符合这个上下限范围;</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +298,30 @@
   </si>
   <si>
     <t>没有跳出的一说，只有合不合格，都要过一遍。之前有个思路是二进制，也是全部遍历一遍，但不是回溯。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32. Longest Valid Parentheses</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode.com/articles/longest-valid-parentheses/</t>
+  </si>
+  <si>
+    <t>弄清规则，借助栈、bitMap；dp重点是公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44. Wildcard Matching</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/4401196.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -801,7 +821,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -810,7 +830,7 @@
     <col min="2" max="2" width="55.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="80.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="98.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="64.5" style="1" customWidth="1"/>
     <col min="8" max="16384" width="10.83203125" style="1"/>
@@ -839,7 +859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50">
+    <row r="2" spans="1:7" ht="26" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -847,16 +867,16 @@
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>25</v>
@@ -873,16 +893,16 @@
         <v>4</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -896,16 +916,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -913,7 +933,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>24</v>
@@ -927,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>24</v>
@@ -941,16 +961,16 @@
         <v>4</v>
       </c>
       <c r="D7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -961,16 +981,16 @@
         <v>2</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -981,13 +1001,13 @@
         <v>4</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -998,23 +1018,50 @@
         <v>4</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="1" t="s">
         <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1050,6 +1097,8 @@
     <hyperlink ref="G4" r:id="rId3" xr:uid="{B6A85328-07C3-CE4C-9D90-9EDA8C806ECF}"/>
     <hyperlink ref="G7" r:id="rId4" xr:uid="{21D9C497-424F-3A4B-A956-74B34DA43E03}"/>
     <hyperlink ref="G8" r:id="rId5" xr:uid="{21338533-B620-2241-A0AA-CDB1B08E5D95}"/>
+    <hyperlink ref="G11" r:id="rId6" xr:uid="{D27E7890-9188-4F4E-8A67-04C2C26A65C5}"/>
+    <hyperlink ref="G12" r:id="rId7" xr:uid="{B7F9D053-1CC9-0440-B9A0-33A39F9B6311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98A21CC-612A-6F4A-A853-9BFB211B0BCA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86562361-D44E-9440-BC56-EC6FCA29EC3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -323,6 +323,16 @@
   <si>
     <t>https://www.cnblogs.com/grandyang/p/4401196.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91. Decode Ways</t>
+  </si>
+  <si>
+    <t>状态转移方程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.tianmaying.com/tutorial/LC91</t>
   </si>
 </sst>
 </file>
@@ -821,7 +831,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1068,6 +1078,21 @@
       <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="1" t="s">
@@ -1099,6 +1124,7 @@
     <hyperlink ref="G8" r:id="rId5" xr:uid="{21338533-B620-2241-A0AA-CDB1B08E5D95}"/>
     <hyperlink ref="G11" r:id="rId6" xr:uid="{D27E7890-9188-4F4E-8A67-04C2C26A65C5}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{B7F9D053-1CC9-0440-B9A0-33A39F9B6311}"/>
+    <hyperlink ref="G13" r:id="rId8" xr:uid="{11C78319-6C35-8A48-97E5-77E62A028C1F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86562361-D44E-9440-BC56-EC6FCA29EC3C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7898A9-7D7C-CF43-8690-26E18B34FE2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -333,6 +333,33 @@
   </si>
   <si>
     <t>https://www.tianmaying.com/tutorial/LC91</t>
+  </si>
+  <si>
+    <t>120. Triangle</t>
+  </si>
+  <si>
+    <t>https://www.cnblogs.com/grandyang/p/4286274.html</t>
+  </si>
+  <si>
+    <t>自顶向下、自底向上；空间O(n)要求未达标--用本身做载体即可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>101. Symmetric Tree</t>
+  </si>
+  <si>
+    <t>breadth-first-search</t>
+  </si>
+  <si>
+    <t>102. Binary Tree Level Order Traversal</t>
+  </si>
+  <si>
+    <t>递归</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>难点在于用数组能记住数据当时的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -830,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1098,15 +1125,54 @@
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="C15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="2:2">
@@ -1125,6 +1191,7 @@
     <hyperlink ref="G11" r:id="rId6" xr:uid="{D27E7890-9188-4F4E-8A67-04C2C26A65C5}"/>
     <hyperlink ref="G12" r:id="rId7" xr:uid="{B7F9D053-1CC9-0440-B9A0-33A39F9B6311}"/>
     <hyperlink ref="G13" r:id="rId8" xr:uid="{11C78319-6C35-8A48-97E5-77E62A028C1F}"/>
+    <hyperlink ref="G14" r:id="rId9" xr:uid="{CFA00DE9-B35F-7A4F-B9D4-B9125A61D4C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7898A9-7D7C-CF43-8690-26E18B34FE2C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5EFFF-7CBC-0146-9737-1DBD77D76512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -361,12 +361,39 @@
     <t>难点在于用数组能记住数据当时的位置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>103. Binary Tree Zigzag Level Order Traversal</t>
+  </si>
+  <si>
+    <t>递归，找出规律</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>greedy</t>
+  </si>
+  <si>
+    <t>55. Jump Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/jump-game/solution/</t>
+  </si>
+  <si>
+    <t>动态规划解的，时间复杂度n2,贪心类型，从结果出发找开头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>122. 买卖股票的最佳时机 II</t>
+  </si>
+  <si>
+    <t>数学分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -410,6 +437,20 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF212121"/>
+      <name val="PingFang SC"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
@@ -506,7 +547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,6 +579,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -855,10 +902,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -906,7 +953,7 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="11" t="s">
         <v>30</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -929,7 +976,7 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="11" t="s">
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -952,7 +999,7 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="11" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -969,7 +1016,7 @@
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="11" t="s">
         <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -983,7 +1030,7 @@
       <c r="C6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="11" t="s">
         <v>35</v>
       </c>
       <c r="E6" s="1" t="s">
@@ -997,7 +1044,7 @@
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>36</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1017,7 +1064,7 @@
       <c r="C8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1037,7 +1084,7 @@
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1054,7 +1101,7 @@
       <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="11" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1071,7 +1118,7 @@
       <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="11" t="s">
         <v>47</v>
       </c>
       <c r="E11" s="10" t="s">
@@ -1091,7 +1138,7 @@
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E12" s="10" t="s">
@@ -1108,7 +1155,7 @@
       <c r="C13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="11" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="10" t="s">
@@ -1128,7 +1175,7 @@
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="11" t="s">
         <v>57</v>
       </c>
       <c r="E14" s="10" t="s">
@@ -1148,7 +1195,7 @@
       <c r="C15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>60</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -1165,7 +1212,7 @@
       <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="11" t="s">
         <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -1175,9 +1222,52 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:7">
       <c r="B17" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="C18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="C19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1192,6 +1282,8 @@
     <hyperlink ref="G12" r:id="rId7" xr:uid="{B7F9D053-1CC9-0440-B9A0-33A39F9B6311}"/>
     <hyperlink ref="G13" r:id="rId8" xr:uid="{11C78319-6C35-8A48-97E5-77E62A028C1F}"/>
     <hyperlink ref="G14" r:id="rId9" xr:uid="{CFA00DE9-B35F-7A4F-B9D4-B9125A61D4C7}"/>
+    <hyperlink ref="G18" r:id="rId10" xr:uid="{FD7960D9-BFEF-B646-AE34-DF296A42C05F}"/>
+    <hyperlink ref="D19" r:id="rId11" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{D7316D07-E832-2E44-B4A1-E28BF15C9784}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D5EFFF-7CBC-0146-9737-1DBD77D76512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858DC3A9-F14D-D248-8CDC-4A208C5E43AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,6 +387,16 @@
   <si>
     <t>数学分析</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>134. 加油站</t>
+  </si>
+  <si>
+    <t>规律分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode/</t>
   </si>
 </sst>
 </file>
@@ -902,10 +912,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1270,6 +1280,23 @@
         <v>72</v>
       </c>
     </row>
+    <row r="20" spans="2:7">
+      <c r="C20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1284,6 +1311,8 @@
     <hyperlink ref="G14" r:id="rId9" xr:uid="{CFA00DE9-B35F-7A4F-B9D4-B9125A61D4C7}"/>
     <hyperlink ref="G18" r:id="rId10" xr:uid="{FD7960D9-BFEF-B646-AE34-DF296A42C05F}"/>
     <hyperlink ref="D19" r:id="rId11" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{D7316D07-E832-2E44-B4A1-E28BF15C9784}"/>
+    <hyperlink ref="D20" r:id="rId12" display="https://leetcode-cn.com/problems/gas-station/" xr:uid="{2F428804-4F92-7C47-AFB0-04584E8E9600}"/>
+    <hyperlink ref="G20" r:id="rId13" xr:uid="{664FA935-D7E9-4B4D-A5E6-CFA5F1902D29}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858DC3A9-F14D-D248-8CDC-4A208C5E43AE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3C0BE-F8B5-7C43-AC17-D078CA725C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -397,6 +397,26 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/gas-station/solution/jia-you-zhan-by-leetcode/</t>
+  </si>
+  <si>
+    <t>3. 无重复字符的最长子串</t>
+  </si>
+  <si>
+    <t>1. 扩大窗口 2.滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/solution/hua-dong-chuang-kou-by-powcai/</t>
+  </si>
+  <si>
+    <t>424. 替换后的最长重复字符</t>
+  </si>
+  <si>
+    <t>1. 扩大窗口 2.滑动窗口 （找出苦扩大的规律）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/longest-repeating-character-replacement/solution/tong-guo-ci-ti-liao-jie-yi-xia-shi-yao-shi-hua-don/</t>
   </si>
 </sst>
 </file>
@@ -912,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1297,6 +1317,40 @@
         <v>75</v>
       </c>
     </row>
+    <row r="21" spans="2:7">
+      <c r="C21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="C22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1313,6 +1367,10 @@
     <hyperlink ref="D19" r:id="rId11" display="https://leetcode-cn.com/problems/best-time-to-buy-and-sell-stock-ii/" xr:uid="{D7316D07-E832-2E44-B4A1-E28BF15C9784}"/>
     <hyperlink ref="D20" r:id="rId12" display="https://leetcode-cn.com/problems/gas-station/" xr:uid="{2F428804-4F92-7C47-AFB0-04584E8E9600}"/>
     <hyperlink ref="G20" r:id="rId13" xr:uid="{664FA935-D7E9-4B4D-A5E6-CFA5F1902D29}"/>
+    <hyperlink ref="D21" r:id="rId14" display="https://leetcode-cn.com/problems/longest-substring-without-repeating-characters/" xr:uid="{2DAE35FC-A10B-564D-8129-09D0A188F46C}"/>
+    <hyperlink ref="G21" r:id="rId15" xr:uid="{326061F6-2EDE-284D-9EC7-1DEA09FAFE80}"/>
+    <hyperlink ref="D22" r:id="rId16" display="https://leetcode-cn.com/problems/longest-repeating-character-replacement/" xr:uid="{032A2366-4FE8-7747-AB93-986C633F21D0}"/>
+    <hyperlink ref="G22" r:id="rId17" xr:uid="{356922B1-DCC7-FD42-AF54-3C362D5FF9B3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E3C0BE-F8B5-7C43-AC17-D078CA725C24}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9ABE5A-7CD1-2D48-88F7-C9FEA298D67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -417,6 +417,24 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/longest-repeating-character-replacement/solution/tong-guo-ci-ti-liao-jie-yi-xia-shi-yao-shi-hua-don/</t>
+  </si>
+  <si>
+    <t>567. 字符串的排列</t>
+  </si>
+  <si>
+    <t>*y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>?y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口长度固定，滑动即可；但需高效比对滑动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/permutation-in-string/solution/zi-fu-chuan-de-pai-lie-by-leetcode/</t>
   </si>
 </sst>
 </file>
@@ -932,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1319,7 +1337,7 @@
     </row>
     <row r="21" spans="2:7">
       <c r="C21" s="1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>76</v>
@@ -1336,7 +1354,7 @@
     </row>
     <row r="22" spans="2:7">
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>79</v>
@@ -1349,6 +1367,23 @@
       </c>
       <c r="G22" s="8" t="s">
         <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="C23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1371,6 +1406,8 @@
     <hyperlink ref="G21" r:id="rId15" xr:uid="{326061F6-2EDE-284D-9EC7-1DEA09FAFE80}"/>
     <hyperlink ref="D22" r:id="rId16" display="https://leetcode-cn.com/problems/longest-repeating-character-replacement/" xr:uid="{032A2366-4FE8-7747-AB93-986C633F21D0}"/>
     <hyperlink ref="G22" r:id="rId17" xr:uid="{356922B1-DCC7-FD42-AF54-3C362D5FF9B3}"/>
+    <hyperlink ref="D23" r:id="rId18" display="https://leetcode-cn.com/problems/permutation-in-string/" xr:uid="{0028BC1E-01A9-B94E-9C81-76EB361F2CC0}"/>
+    <hyperlink ref="G23" r:id="rId19" xr:uid="{1EE15B90-2467-B34B-B380-51BA5EE4559B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9ABE5A-7CD1-2D48-88F7-C9FEA298D67D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9D319-B8B7-9F46-BF87-94A61708B9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,16 @@
   </si>
   <si>
     <t>https://leetcode-cn.com/problems/permutation-in-string/solution/zi-fu-chuan-de-pai-lie-by-leetcode/</t>
+  </si>
+  <si>
+    <t>https://leetcode-cn.com/problems/merge-k-sorted-lists/solution/he-bing-kge-pai-xu-lian-biao-by-leetcode-solutio-2/</t>
+  </si>
+  <si>
+    <t>23. 合并K个排序链表</t>
+  </si>
+  <si>
+    <t>1.暴力解； 答案是分而治之，分到两两合并，两两合并比较快，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -950,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1384,6 +1394,23 @@
       </c>
       <c r="G23" s="8" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1408,6 +1435,8 @@
     <hyperlink ref="G22" r:id="rId17" xr:uid="{356922B1-DCC7-FD42-AF54-3C362D5FF9B3}"/>
     <hyperlink ref="D23" r:id="rId18" display="https://leetcode-cn.com/problems/permutation-in-string/" xr:uid="{0028BC1E-01A9-B94E-9C81-76EB361F2CC0}"/>
     <hyperlink ref="G23" r:id="rId19" xr:uid="{1EE15B90-2467-B34B-B380-51BA5EE4559B}"/>
+    <hyperlink ref="G24" r:id="rId20" xr:uid="{1D669ABE-3E92-764D-982D-B0B2B1ADDEF1}"/>
+    <hyperlink ref="D24" r:id="rId21" display="https://leetcode-cn.com/problems/merge-k-sorted-lists/" xr:uid="{62F24275-50C4-7748-9CAB-A37643D42A36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F9D319-B8B7-9F46-BF87-94A61708B9DE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC447B2-2717-C644-B06C-4F37B845AB8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -444,6 +444,10 @@
   </si>
   <si>
     <t>1.暴力解； 答案是分而治之，分到两两合并，两两合并比较快，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>198.打家劫舍1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -960,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1411,6 +1415,17 @@
       </c>
       <c r="G24" s="8" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/leetcode记录.xlsx
+++ b/leetcode记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xmly/xmly/LeetCode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC447B2-2717-C644-B06C-4F37B845AB8B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DF08432-A3BB-7443-BE11-361EA532E9A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="920" yWindow="460" windowWidth="27880" windowHeight="17540" xr2:uid="{116BC5FD-7B58-504B-A072-D3000B366ED4}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="95">
   <si>
     <t>思路</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,21 @@
   </si>
   <si>
     <t>198.打家劫舍1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/anhenzhufeng/article/details/49666085</t>
+  </si>
+  <si>
+    <t>1114. print-in-order</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多线程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 信号量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,10 +979,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A930CFB-02C8-6D43-B1B5-1B52C5A7F32F}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24"/>
@@ -1426,6 +1441,20 @@
       </c>
       <c r="E25" s="10" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="D26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
